--- a/Задание 18.6.2.xlsx
+++ b/Задание 18.6.2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Skillfactory\PJ-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="1680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-кейсы" sheetId="1" r:id="rId1"/>
@@ -1376,9 +1376,6 @@
     <t>(Токен 1493436800:AAF1Eult9X13lyLQGGdScK63MbGOJyGqGbk)</t>
   </si>
   <si>
-    <t>Сабельфельд Артем QAP-1035</t>
-  </si>
-  <si>
     <t>Windows 10 Pro, Telegram Desktop версия: 4.8.3 x64</t>
   </si>
   <si>
@@ -1466,6 +1463,9 @@
       </rPr>
       <t>Программа конвертирует не «евро» в «рубль», а «рубль» в «евро»</t>
     </r>
+  </si>
+  <si>
+    <t>Хромин Александр QAP-1035</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1857,7 +1857,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2277,87 +2276,87 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" customWidth="1"/>
-    <col min="6" max="6" width="47.109375" customWidth="1"/>
-    <col min="7" max="1025" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="47.140625" customWidth="1"/>
+    <col min="7" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-    </row>
-    <row r="2" spans="1:7" ht="13.8">
-      <c r="A2" s="37" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="19" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:7" ht="13.8">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="34">
-        <v>45098</v>
+      <c r="B4" s="38"/>
+      <c r="C4" s="33">
+        <v>45181</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:7" ht="13.8">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="18"/>
     </row>
-    <row r="7" spans="1:7" ht="13.8">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2380,18 +2379,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:7" ht="14.25">
+      <c r="A8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-    </row>
-    <row r="9" spans="1:7" ht="28.8">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.5">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -2402,7 +2401,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>14</v>
@@ -2414,7 +2413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27.6">
+    <row r="10" spans="1:7" ht="42.75">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -2425,7 +2424,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>19</v>
@@ -2437,7 +2436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27.6">
+    <row r="11" spans="1:7" ht="42.75">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -2448,7 +2447,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>23</v>
@@ -2460,18 +2459,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:7" ht="14.25">
+      <c r="A12" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:7" ht="42.6">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:7" ht="42.75">
       <c r="A13" s="23" t="s">
         <v>26</v>
       </c>
@@ -2482,7 +2481,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>29</v>
@@ -2494,7 +2493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="41.4">
+    <row r="14" spans="1:7" ht="42.75">
       <c r="A14" s="23" t="s">
         <v>31</v>
       </c>
@@ -2505,7 +2504,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>33</v>
@@ -2517,7 +2516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="41.4">
+    <row r="15" spans="1:7" ht="42.75">
       <c r="A15" s="23" t="s">
         <v>34</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>36</v>
@@ -2540,18 +2539,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.8">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:7" ht="14.25">
+      <c r="A16" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="1:7" ht="42.6">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" ht="42.75">
       <c r="A17" s="23" t="s">
         <v>38</v>
       </c>
@@ -2562,7 +2561,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>40</v>
@@ -2574,7 +2573,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="42.6">
+    <row r="18" spans="1:7" ht="42.75">
       <c r="A18" s="23" t="s">
         <v>43</v>
       </c>
@@ -2585,7 +2584,7 @@
         <v>44</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>45</v>
@@ -2597,7 +2596,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="42.6">
+    <row r="19" spans="1:7" ht="42.75">
       <c r="A19" s="23" t="s">
         <v>47</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>49</v>
@@ -2620,7 +2619,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="42.6">
+    <row r="20" spans="1:7" ht="42.75">
       <c r="A20" s="23" t="s">
         <v>51</v>
       </c>
@@ -2631,7 +2630,7 @@
         <v>52</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>53</v>
@@ -2643,7 +2642,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="42.6">
+    <row r="21" spans="1:7" ht="42.75">
       <c r="A21" s="23" t="s">
         <v>55</v>
       </c>
@@ -2654,7 +2653,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>57</v>
@@ -2666,7 +2665,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="42.6">
+    <row r="22" spans="1:7" ht="42.75">
       <c r="A22" s="23" t="s">
         <v>59</v>
       </c>
@@ -2677,7 +2676,7 @@
         <v>60</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>61</v>
@@ -2689,7 +2688,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="41.4">
+    <row r="23" spans="1:7" ht="42.75">
       <c r="A23" s="23" t="s">
         <v>63</v>
       </c>
@@ -2700,7 +2699,7 @@
         <v>64</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>65</v>
@@ -2712,18 +2711,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.8">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:7" ht="14.25">
+      <c r="A24" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="1:7" ht="42.6">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" spans="1:7" ht="42.75">
       <c r="A25" s="23" t="s">
         <v>68</v>
       </c>
@@ -2734,7 +2733,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>71</v>
@@ -2746,7 +2745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="42.6">
+    <row r="26" spans="1:7" ht="57">
       <c r="A26" s="23" t="s">
         <v>73</v>
       </c>
@@ -2757,7 +2756,7 @@
         <v>70</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>74</v>
@@ -2769,7 +2768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="42.6">
+    <row r="27" spans="1:7" ht="57">
       <c r="A27" s="23" t="s">
         <v>76</v>
       </c>
@@ -2780,7 +2779,7 @@
         <v>70</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>74</v>
@@ -2792,7 +2791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="42.6">
+    <row r="28" spans="1:7" ht="42.75">
       <c r="A28" s="23" t="s">
         <v>78</v>
       </c>
@@ -2803,7 +2802,7 @@
         <v>79</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>80</v>
@@ -2815,7 +2814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="42.6">
+    <row r="29" spans="1:7" ht="42.75">
       <c r="A29" s="23" t="s">
         <v>82</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>79</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>83</v>
@@ -2838,7 +2837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="42.6">
+    <row r="30" spans="1:7" ht="42.75">
       <c r="A30" s="23" t="s">
         <v>85</v>
       </c>
@@ -2849,7 +2848,7 @@
         <v>79</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>86</v>
@@ -2861,7 +2860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="42.6">
+    <row r="31" spans="1:7" ht="42.75">
       <c r="A31" s="23" t="s">
         <v>88</v>
       </c>
@@ -2872,7 +2871,7 @@
         <v>89</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>90</v>
@@ -2884,7 +2883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="42.6">
+    <row r="32" spans="1:7" ht="42.75">
       <c r="A32" s="23" t="s">
         <v>92</v>
       </c>
@@ -2895,7 +2894,7 @@
         <v>93</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>94</v>
@@ -2934,36 +2933,36 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="34.44140625" customWidth="1"/>
-    <col min="9" max="1023" width="14.44140625" customWidth="1"/>
-    <col min="1024" max="1025" width="11.5546875"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" customWidth="1"/>
+    <col min="9" max="1023" width="14.42578125" customWidth="1"/>
+    <col min="1024" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="13.8">
-      <c r="A1" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-    </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" ht="13.8">
+    <row r="1" spans="1:8" s="15" customFormat="1" ht="14.25">
+      <c r="A1" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="14.25">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -2973,13 +2972,13 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
     </row>
-    <row r="3" spans="1:8" s="15" customFormat="1" ht="13.8">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:8" s="15" customFormat="1" ht="15">
+      <c r="A3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="31" t="s">
-        <v>128</v>
+      <c r="B3" s="42"/>
+      <c r="C3" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -2987,27 +2986,27 @@
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="1:8" ht="13.8">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:8" ht="15">
+      <c r="A4" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="44">
-        <v>45098</v>
-      </c>
-      <c r="D4" s="44"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="43">
+        <v>45181</v>
+      </c>
+      <c r="D4" s="43"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:8" ht="13.8">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="13.8">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -3033,7 +3032,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="82.8">
+    <row r="7" spans="1:8" ht="85.5">
       <c r="A7" s="6" t="s">
         <v>99</v>
       </c>
@@ -3044,7 +3043,7 @@
         <v>101</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>40</v>
@@ -3056,10 +3055,10 @@
         <v>102</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="42.6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57">
       <c r="A8" s="6" t="s">
         <v>103</v>
       </c>
@@ -3070,7 +3069,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>105</v>
@@ -3083,7 +3082,7 @@
       </c>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" ht="136.19999999999999">
+    <row r="9" spans="1:8" ht="132.75">
       <c r="A9" s="6" t="s">
         <v>107</v>
       </c>
@@ -3094,7 +3093,7 @@
         <v>101</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>109</v>
@@ -3105,11 +3104,11 @@
       <c r="G9" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="136.19999999999999">
+    <row r="10" spans="1:8" ht="132.75">
       <c r="A10" s="6" t="s">
         <v>112</v>
       </c>
@@ -3120,7 +3119,7 @@
         <v>101</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>114</v>
@@ -3131,11 +3130,11 @@
       <c r="G10" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="31" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="71.25">
       <c r="A11" s="6" t="s">
         <v>116</v>
       </c>
@@ -3146,7 +3145,7 @@
         <v>101</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>118</v>
@@ -3157,11 +3156,11 @@
       <c r="G11" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="42.6">
+      <c r="H11" s="32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57">
       <c r="A12" s="6" t="s">
         <v>119</v>
       </c>
@@ -3172,7 +3171,7 @@
         <v>101</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>121</v>
@@ -3185,7 +3184,7 @@
       </c>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:8" ht="82.8">
+    <row r="13" spans="1:8" ht="85.5">
       <c r="A13" s="6" t="s">
         <v>123</v>
       </c>
@@ -3196,7 +3195,7 @@
         <v>101</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>125</v>
@@ -3208,7 +3207,7 @@
         <v>102</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
